--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Mfng-Notch1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Mfng-Notch1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.1001736221506</v>
+        <v>14.982688</v>
       </c>
       <c r="H2">
-        <v>11.1001736221506</v>
+        <v>44.948064</v>
       </c>
       <c r="I2">
-        <v>0.5354861727649476</v>
+        <v>0.5953835060803593</v>
       </c>
       <c r="J2">
-        <v>0.5354861727649476</v>
+        <v>0.5953835060803593</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>36.7867647594208</v>
+        <v>45.13108133333333</v>
       </c>
       <c r="N2">
-        <v>36.7867647594208</v>
+        <v>135.393244</v>
       </c>
       <c r="O2">
-        <v>0.2952017182697281</v>
+        <v>0.3170330137447531</v>
       </c>
       <c r="P2">
-        <v>0.2952017182697281</v>
+        <v>0.317033013744753</v>
       </c>
       <c r="Q2">
-        <v>408.339475826782</v>
+        <v>676.1849107199572</v>
       </c>
       <c r="R2">
-        <v>408.339475826782</v>
+        <v>6085.664196479615</v>
       </c>
       <c r="S2">
-        <v>0.158076438309893</v>
+        <v>0.1887562272665738</v>
       </c>
       <c r="T2">
-        <v>0.158076438309893</v>
+        <v>0.1887562272665738</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>26</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.1001736221506</v>
+        <v>14.982688</v>
       </c>
       <c r="H3">
-        <v>11.1001736221506</v>
+        <v>44.948064</v>
       </c>
       <c r="I3">
-        <v>0.5354861727649476</v>
+        <v>0.5953835060803593</v>
       </c>
       <c r="J3">
-        <v>0.5354861727649476</v>
+        <v>0.5953835060803593</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.71373915320556</v>
+        <v>5.717455666666666</v>
       </c>
       <c r="N3">
-        <v>5.71373915320556</v>
+        <v>17.152367</v>
       </c>
       <c r="O3">
-        <v>0.04585088215291751</v>
+        <v>0.04016350035062346</v>
       </c>
       <c r="P3">
-        <v>0.04585088215291751</v>
+        <v>0.04016350035062346</v>
       </c>
       <c r="Q3">
-        <v>63.42349663226145</v>
+        <v>85.66285440749864</v>
       </c>
       <c r="R3">
-        <v>63.42349663226145</v>
+        <v>770.9656896674878</v>
       </c>
       <c r="S3">
-        <v>0.02455251340196244</v>
+        <v>0.02391268565521393</v>
       </c>
       <c r="T3">
-        <v>0.02455251340196244</v>
+        <v>0.02391268565521393</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.1001736221506</v>
+        <v>14.982688</v>
       </c>
       <c r="H4">
-        <v>11.1001736221506</v>
+        <v>44.948064</v>
       </c>
       <c r="I4">
-        <v>0.5354861727649476</v>
+        <v>0.5953835060803593</v>
       </c>
       <c r="J4">
-        <v>0.5354861727649476</v>
+        <v>0.5953835060803593</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.9566919690693</v>
+        <v>14.17143466666666</v>
       </c>
       <c r="N4">
-        <v>11.9566919690693</v>
+        <v>42.514304</v>
       </c>
       <c r="O4">
-        <v>0.09594853032535849</v>
+        <v>0.09955029901182223</v>
       </c>
       <c r="P4">
-        <v>0.09594853032535849</v>
+        <v>0.09955029901182223</v>
       </c>
       <c r="Q4">
-        <v>132.721356803243</v>
+        <v>212.3261841230506</v>
       </c>
       <c r="R4">
-        <v>132.721356803243</v>
+        <v>1910.935657107456</v>
       </c>
       <c r="S4">
-        <v>0.05137911128634773</v>
+        <v>0.05927060605700685</v>
       </c>
       <c r="T4">
-        <v>0.05137911128634773</v>
+        <v>0.05927060605700685</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.1001736221506</v>
+        <v>14.982688</v>
       </c>
       <c r="H5">
-        <v>11.1001736221506</v>
+        <v>44.948064</v>
       </c>
       <c r="I5">
-        <v>0.5354861727649476</v>
+        <v>0.5953835060803593</v>
       </c>
       <c r="J5">
-        <v>0.5354861727649476</v>
+        <v>0.5953835060803593</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.6185303425051</v>
+        <v>15.94503</v>
       </c>
       <c r="N5">
-        <v>15.6185303425051</v>
+        <v>47.83509</v>
       </c>
       <c r="O5">
-        <v>0.1253335819039277</v>
+        <v>0.1120093019224172</v>
       </c>
       <c r="P5">
-        <v>0.1253335819039277</v>
+        <v>0.1120093019224172</v>
       </c>
       <c r="Q5">
-        <v>173.3683985246339</v>
+        <v>238.89940964064</v>
       </c>
       <c r="R5">
-        <v>173.3683985246339</v>
+        <v>2150.09468676576</v>
       </c>
       <c r="S5">
-        <v>0.06711440009265636</v>
+        <v>0.06668849089218228</v>
       </c>
       <c r="T5">
-        <v>0.06711440009265636</v>
+        <v>0.06668849089218226</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.1001736221506</v>
+        <v>14.982688</v>
       </c>
       <c r="H6">
-        <v>11.1001736221506</v>
+        <v>44.948064</v>
       </c>
       <c r="I6">
-        <v>0.5354861727649476</v>
+        <v>0.5953835060803593</v>
       </c>
       <c r="J6">
-        <v>0.5354861727649476</v>
+        <v>0.5953835060803593</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>26.5908508520181</v>
+        <v>28.53112133333333</v>
       </c>
       <c r="N6">
-        <v>26.5908508520181</v>
+        <v>85.59336400000001</v>
       </c>
       <c r="O6">
-        <v>0.2133828542168707</v>
+        <v>0.2004230147958612</v>
       </c>
       <c r="P6">
-        <v>0.2133828542168707</v>
+        <v>0.2004230147958612</v>
       </c>
       <c r="Q6">
-        <v>295.1630612181121</v>
+        <v>427.4728892274773</v>
       </c>
       <c r="R6">
-        <v>295.1630612181121</v>
+        <v>3847.256003047296</v>
       </c>
       <c r="S6">
-        <v>0.1142635679382529</v>
+        <v>0.1193285572483556</v>
       </c>
       <c r="T6">
-        <v>0.1142635679382529</v>
+        <v>0.1193285572483556</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.1001736221506</v>
+        <v>14.982688</v>
       </c>
       <c r="H7">
-        <v>11.1001736221506</v>
+        <v>44.948064</v>
       </c>
       <c r="I7">
-        <v>0.5354861727649476</v>
+        <v>0.5953835060803593</v>
       </c>
       <c r="J7">
-        <v>0.5354861727649476</v>
+        <v>0.5953835060803593</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>27.9491093602959</v>
+        <v>32.85839333333333</v>
       </c>
       <c r="N7">
-        <v>27.9491093602959</v>
+        <v>98.57517999999999</v>
       </c>
       <c r="O7">
-        <v>0.2242824331311975</v>
+        <v>0.2308208701745229</v>
       </c>
       <c r="P7">
-        <v>0.2242824331311975</v>
+        <v>0.2308208701745229</v>
       </c>
       <c r="Q7">
-        <v>310.239966483759</v>
+        <v>492.3070554946132</v>
       </c>
       <c r="R7">
-        <v>310.239966483759</v>
+        <v>4430.763499451519</v>
       </c>
       <c r="S7">
-        <v>0.1201001417358352</v>
+        <v>0.1374269389610269</v>
       </c>
       <c r="T7">
-        <v>0.1201001417358352</v>
+        <v>0.1374269389610268</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.39202176322506</v>
+        <v>2.692289</v>
       </c>
       <c r="H8">
-        <v>2.39202176322506</v>
+        <v>8.076867</v>
       </c>
       <c r="I8">
-        <v>0.1153941030799555</v>
+        <v>0.1069864408977605</v>
       </c>
       <c r="J8">
-        <v>0.1153941030799555</v>
+        <v>0.1069864408977604</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>36.7867647594208</v>
+        <v>45.13108133333333</v>
       </c>
       <c r="N8">
-        <v>36.7867647594208</v>
+        <v>135.393244</v>
       </c>
       <c r="O8">
-        <v>0.2952017182697281</v>
+        <v>0.3170330137447531</v>
       </c>
       <c r="P8">
-        <v>0.2952017182697281</v>
+        <v>0.317033013744753</v>
       </c>
       <c r="Q8">
-        <v>87.99474190317524</v>
+        <v>121.5059138318387</v>
       </c>
       <c r="R8">
-        <v>87.99474190317524</v>
+        <v>1093.553224486548</v>
       </c>
       <c r="S8">
-        <v>0.03406453750739698</v>
+        <v>0.0339182337876419</v>
       </c>
       <c r="T8">
-        <v>0.03406453750739698</v>
+        <v>0.03391823378764189</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.39202176322506</v>
+        <v>2.692289</v>
       </c>
       <c r="H9">
-        <v>2.39202176322506</v>
+        <v>8.076867</v>
       </c>
       <c r="I9">
-        <v>0.1153941030799555</v>
+        <v>0.1069864408977605</v>
       </c>
       <c r="J9">
-        <v>0.1153941030799555</v>
+        <v>0.1069864408977604</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.71373915320556</v>
+        <v>5.717455666666666</v>
       </c>
       <c r="N9">
-        <v>5.71373915320556</v>
+        <v>17.152367</v>
       </c>
       <c r="O9">
-        <v>0.04585088215291751</v>
+        <v>0.04016350035062346</v>
       </c>
       <c r="P9">
-        <v>0.04585088215291751</v>
+        <v>0.04016350035062346</v>
       </c>
       <c r="Q9">
-        <v>13.66738840385883</v>
+        <v>15.39304299935433</v>
       </c>
       <c r="R9">
-        <v>13.66738840385883</v>
+        <v>138.537386994189</v>
       </c>
       <c r="S9">
-        <v>0.005290921421460655</v>
+        <v>0.004296949956509158</v>
       </c>
       <c r="T9">
-        <v>0.005290921421460655</v>
+        <v>0.004296949956509157</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.39202176322506</v>
+        <v>2.692289</v>
       </c>
       <c r="H10">
-        <v>2.39202176322506</v>
+        <v>8.076867</v>
       </c>
       <c r="I10">
-        <v>0.1153941030799555</v>
+        <v>0.1069864408977605</v>
       </c>
       <c r="J10">
-        <v>0.1153941030799555</v>
+        <v>0.1069864408977604</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.9566919690693</v>
+        <v>14.17143466666666</v>
       </c>
       <c r="N10">
-        <v>11.9566919690693</v>
+        <v>42.514304</v>
       </c>
       <c r="O10">
-        <v>0.09594853032535849</v>
+        <v>0.09955029901182223</v>
       </c>
       <c r="P10">
-        <v>0.09594853032535849</v>
+        <v>0.09955029901182223</v>
       </c>
       <c r="Q10">
-        <v>28.60066740619207</v>
+        <v>38.15359766728533</v>
       </c>
       <c r="R10">
-        <v>28.60066740619207</v>
+        <v>343.3823790055679</v>
       </c>
       <c r="S10">
-        <v>0.01107189459873465</v>
+        <v>0.0106505321815827</v>
       </c>
       <c r="T10">
-        <v>0.01107189459873465</v>
+        <v>0.0106505321815827</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.39202176322506</v>
+        <v>2.692289</v>
       </c>
       <c r="H11">
-        <v>2.39202176322506</v>
+        <v>8.076867</v>
       </c>
       <c r="I11">
-        <v>0.1153941030799555</v>
+        <v>0.1069864408977605</v>
       </c>
       <c r="J11">
-        <v>0.1153941030799555</v>
+        <v>0.1069864408977604</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>15.6185303425051</v>
+        <v>15.94503</v>
       </c>
       <c r="N11">
-        <v>15.6185303425051</v>
+        <v>47.83509</v>
       </c>
       <c r="O11">
-        <v>0.1253335819039277</v>
+        <v>0.1120093019224172</v>
       </c>
       <c r="P11">
-        <v>0.1253335819039277</v>
+        <v>0.1120093019224172</v>
       </c>
       <c r="Q11">
-        <v>37.35986448886315</v>
+        <v>42.92862887367001</v>
       </c>
       <c r="R11">
-        <v>37.35986448886315</v>
+        <v>386.35765986303</v>
       </c>
       <c r="S11">
-        <v>0.01446275626960188</v>
+        <v>0.01198347656012209</v>
       </c>
       <c r="T11">
-        <v>0.01446275626960188</v>
+        <v>0.01198347656012209</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.39202176322506</v>
+        <v>2.692289</v>
       </c>
       <c r="H12">
-        <v>2.39202176322506</v>
+        <v>8.076867</v>
       </c>
       <c r="I12">
-        <v>0.1153941030799555</v>
+        <v>0.1069864408977605</v>
       </c>
       <c r="J12">
-        <v>0.1153941030799555</v>
+        <v>0.1069864408977604</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>26.5908508520181</v>
+        <v>28.53112133333333</v>
       </c>
       <c r="N12">
-        <v>26.5908508520181</v>
+        <v>85.59336400000001</v>
       </c>
       <c r="O12">
-        <v>0.2133828542168707</v>
+        <v>0.2004230147958612</v>
       </c>
       <c r="P12">
-        <v>0.2133828542168707</v>
+        <v>0.2004230147958612</v>
       </c>
       <c r="Q12">
-        <v>63.60589394069893</v>
+        <v>76.81402412339868</v>
       </c>
       <c r="R12">
-        <v>63.60589394069893</v>
+        <v>691.3262171105881</v>
       </c>
       <c r="S12">
-        <v>0.02462312307499669</v>
+        <v>0.02144254502700838</v>
       </c>
       <c r="T12">
-        <v>0.02462312307499669</v>
+        <v>0.02144254502700837</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>27</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.39202176322506</v>
+        <v>2.692289</v>
       </c>
       <c r="H13">
-        <v>2.39202176322506</v>
+        <v>8.076867</v>
       </c>
       <c r="I13">
-        <v>0.1153941030799555</v>
+        <v>0.1069864408977605</v>
       </c>
       <c r="J13">
-        <v>0.1153941030799555</v>
+        <v>0.1069864408977604</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>27.9491093602959</v>
+        <v>32.85839333333333</v>
       </c>
       <c r="N13">
-        <v>27.9491093602959</v>
+        <v>98.57517999999999</v>
       </c>
       <c r="O13">
-        <v>0.2242824331311975</v>
+        <v>0.2308208701745229</v>
       </c>
       <c r="P13">
-        <v>0.2242824331311975</v>
+        <v>0.2308208701745229</v>
       </c>
       <c r="Q13">
-        <v>66.85487785258503</v>
+        <v>88.46429092900667</v>
       </c>
       <c r="R13">
-        <v>66.85487785258503</v>
+        <v>796.1786183610599</v>
       </c>
       <c r="S13">
-        <v>0.02588087020776463</v>
+        <v>0.02469470338489623</v>
       </c>
       <c r="T13">
-        <v>0.02588087020776463</v>
+        <v>0.02469470338489622</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.50042083301292</v>
+        <v>4.612546666666667</v>
       </c>
       <c r="H14">
-        <v>4.50042083301292</v>
+        <v>13.83764</v>
       </c>
       <c r="I14">
-        <v>0.2171058948927339</v>
+        <v>0.1832938259382612</v>
       </c>
       <c r="J14">
-        <v>0.2171058948927339</v>
+        <v>0.1832938259382612</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>36.7867647594208</v>
+        <v>45.13108133333333</v>
       </c>
       <c r="N14">
-        <v>36.7867647594208</v>
+        <v>135.393244</v>
       </c>
       <c r="O14">
-        <v>0.2952017182697281</v>
+        <v>0.3170330137447531</v>
       </c>
       <c r="P14">
-        <v>0.2952017182697281</v>
+        <v>0.317033013744753</v>
       </c>
       <c r="Q14">
-        <v>165.5559225024429</v>
+        <v>208.1692187671289</v>
       </c>
       <c r="R14">
-        <v>165.5559225024429</v>
+        <v>1873.52296890416</v>
       </c>
       <c r="S14">
-        <v>0.06409003321882203</v>
+        <v>0.05811019403801313</v>
       </c>
       <c r="T14">
-        <v>0.06409003321882203</v>
+        <v>0.05811019403801312</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>26</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.50042083301292</v>
+        <v>4.612546666666667</v>
       </c>
       <c r="H15">
-        <v>4.50042083301292</v>
+        <v>13.83764</v>
       </c>
       <c r="I15">
-        <v>0.2171058948927339</v>
+        <v>0.1832938259382612</v>
       </c>
       <c r="J15">
-        <v>0.2171058948927339</v>
+        <v>0.1832938259382612</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.71373915320556</v>
+        <v>5.717455666666666</v>
       </c>
       <c r="N15">
-        <v>5.71373915320556</v>
+        <v>17.152367</v>
       </c>
       <c r="O15">
-        <v>0.04585088215291751</v>
+        <v>0.04016350035062346</v>
       </c>
       <c r="P15">
-        <v>0.04585088215291751</v>
+        <v>0.04016350035062346</v>
       </c>
       <c r="Q15">
-        <v>25.7142307194879</v>
+        <v>26.37203107709778</v>
       </c>
       <c r="R15">
-        <v>25.7142307194879</v>
+        <v>237.34827969388</v>
       </c>
       <c r="S15">
-        <v>0.00995449680143044</v>
+        <v>0.007361721642338468</v>
       </c>
       <c r="T15">
-        <v>0.00995449680143044</v>
+        <v>0.007361721642338468</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>21</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.50042083301292</v>
+        <v>4.612546666666667</v>
       </c>
       <c r="H16">
-        <v>4.50042083301292</v>
+        <v>13.83764</v>
       </c>
       <c r="I16">
-        <v>0.2171058948927339</v>
+        <v>0.1832938259382612</v>
       </c>
       <c r="J16">
-        <v>0.2171058948927339</v>
+        <v>0.1832938259382612</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>11.9566919690693</v>
+        <v>14.17143466666666</v>
       </c>
       <c r="N16">
-        <v>11.9566919690693</v>
+        <v>42.514304</v>
       </c>
       <c r="O16">
-        <v>0.09594853032535849</v>
+        <v>0.09955029901182223</v>
       </c>
       <c r="P16">
-        <v>0.09594853032535849</v>
+        <v>0.09955029901182223</v>
       </c>
       <c r="Q16">
-        <v>53.81014563151776</v>
+        <v>65.36640373361777</v>
       </c>
       <c r="R16">
-        <v>53.81014563151776</v>
+        <v>588.2976336025599</v>
       </c>
       <c r="S16">
-        <v>0.02083099153992958</v>
+        <v>0.0182469551791748</v>
       </c>
       <c r="T16">
-        <v>0.02083099153992958</v>
+        <v>0.0182469551791748</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.50042083301292</v>
+        <v>4.612546666666667</v>
       </c>
       <c r="H17">
-        <v>4.50042083301292</v>
+        <v>13.83764</v>
       </c>
       <c r="I17">
-        <v>0.2171058948927339</v>
+        <v>0.1832938259382612</v>
       </c>
       <c r="J17">
-        <v>0.2171058948927339</v>
+        <v>0.1832938259382612</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>15.6185303425051</v>
+        <v>15.94503</v>
       </c>
       <c r="N17">
-        <v>15.6185303425051</v>
+        <v>47.83509</v>
       </c>
       <c r="O17">
-        <v>0.1253335819039277</v>
+        <v>0.1120093019224172</v>
       </c>
       <c r="P17">
-        <v>0.1253335819039277</v>
+        <v>0.1120093019224172</v>
       </c>
       <c r="Q17">
-        <v>70.28995933445437</v>
+        <v>73.54719497640001</v>
       </c>
       <c r="R17">
-        <v>70.28995933445437</v>
+        <v>661.9247547876</v>
       </c>
       <c r="S17">
-        <v>0.027210659459364</v>
+        <v>0.02053061349003368</v>
       </c>
       <c r="T17">
-        <v>0.027210659459364</v>
+        <v>0.02053061349003368</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>23</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.50042083301292</v>
+        <v>4.612546666666667</v>
       </c>
       <c r="H18">
-        <v>4.50042083301292</v>
+        <v>13.83764</v>
       </c>
       <c r="I18">
-        <v>0.2171058948927339</v>
+        <v>0.1832938259382612</v>
       </c>
       <c r="J18">
-        <v>0.2171058948927339</v>
+        <v>0.1832938259382612</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>26.5908508520181</v>
+        <v>28.53112133333333</v>
       </c>
       <c r="N18">
-        <v>26.5908508520181</v>
+        <v>85.59336400000001</v>
       </c>
       <c r="O18">
-        <v>0.2133828542168707</v>
+        <v>0.2004230147958612</v>
       </c>
       <c r="P18">
-        <v>0.2133828542168707</v>
+        <v>0.2004230147958612</v>
       </c>
       <c r="Q18">
-        <v>119.6700191419616</v>
+        <v>131.6011286023289</v>
       </c>
       <c r="R18">
-        <v>119.6700191419616</v>
+        <v>1184.41015742096</v>
       </c>
       <c r="S18">
-        <v>0.0463266755195195</v>
+        <v>0.03673630118801414</v>
       </c>
       <c r="T18">
-        <v>0.0463266755195195</v>
+        <v>0.03673630118801413</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>27</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.50042083301292</v>
+        <v>4.612546666666667</v>
       </c>
       <c r="H19">
-        <v>4.50042083301292</v>
+        <v>13.83764</v>
       </c>
       <c r="I19">
-        <v>0.2171058948927339</v>
+        <v>0.1832938259382612</v>
       </c>
       <c r="J19">
-        <v>0.2171058948927339</v>
+        <v>0.1832938259382612</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>27.9491093602959</v>
+        <v>32.85839333333333</v>
       </c>
       <c r="N19">
-        <v>27.9491093602959</v>
+        <v>98.57517999999999</v>
       </c>
       <c r="O19">
-        <v>0.2242824331311975</v>
+        <v>0.2308208701745229</v>
       </c>
       <c r="P19">
-        <v>0.2242824331311975</v>
+        <v>0.2308208701745229</v>
       </c>
       <c r="Q19">
-        <v>125.7827540292321</v>
+        <v>151.5608726416889</v>
       </c>
       <c r="R19">
-        <v>125.7827540292321</v>
+        <v>1364.0478537752</v>
       </c>
       <c r="S19">
-        <v>0.0486930383536684</v>
+        <v>0.04230804040068698</v>
       </c>
       <c r="T19">
-        <v>0.0486930383536684</v>
+        <v>0.04230804040068697</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.73653457337806</v>
+        <v>2.877244666666666</v>
       </c>
       <c r="H20">
-        <v>2.73653457337806</v>
+        <v>8.631734</v>
       </c>
       <c r="I20">
-        <v>0.1320138292623631</v>
+        <v>0.1143362270836191</v>
       </c>
       <c r="J20">
-        <v>0.1320138292623631</v>
+        <v>0.1143362270836191</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>36.7867647594208</v>
+        <v>45.13108133333333</v>
       </c>
       <c r="N20">
-        <v>36.7867647594208</v>
+        <v>135.393244</v>
       </c>
       <c r="O20">
-        <v>0.2952017182697281</v>
+        <v>0.3170330137447531</v>
       </c>
       <c r="P20">
-        <v>0.2952017182697281</v>
+        <v>0.317033013744753</v>
       </c>
       <c r="Q20">
-        <v>100.6682536068806</v>
+        <v>129.8531630672329</v>
       </c>
       <c r="R20">
-        <v>100.6682536068806</v>
+        <v>1168.678467605096</v>
       </c>
       <c r="S20">
-        <v>0.0389707092336161</v>
+        <v>0.03624835865252422</v>
       </c>
       <c r="T20">
-        <v>0.0389707092336161</v>
+        <v>0.03624835865252422</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>26</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.73653457337806</v>
+        <v>2.877244666666666</v>
       </c>
       <c r="H21">
-        <v>2.73653457337806</v>
+        <v>8.631734</v>
       </c>
       <c r="I21">
-        <v>0.1320138292623631</v>
+        <v>0.1143362270836191</v>
       </c>
       <c r="J21">
-        <v>0.1320138292623631</v>
+        <v>0.1143362270836191</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>5.71373915320556</v>
+        <v>5.717455666666666</v>
       </c>
       <c r="N21">
-        <v>5.71373915320556</v>
+        <v>17.152367</v>
       </c>
       <c r="O21">
-        <v>0.04585088215291751</v>
+        <v>0.04016350035062346</v>
       </c>
       <c r="P21">
-        <v>0.04585088215291751</v>
+        <v>0.04016350035062346</v>
       </c>
       <c r="Q21">
-        <v>15.63584473601089</v>
+        <v>16.45051882381977</v>
       </c>
       <c r="R21">
-        <v>15.63584473601089</v>
+        <v>148.054669414378</v>
       </c>
       <c r="S21">
-        <v>0.006052950528063985</v>
+        <v>0.004592143096561899</v>
       </c>
       <c r="T21">
-        <v>0.006052950528063985</v>
+        <v>0.004592143096561899</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>21</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.73653457337806</v>
+        <v>2.877244666666666</v>
       </c>
       <c r="H22">
-        <v>2.73653457337806</v>
+        <v>8.631734</v>
       </c>
       <c r="I22">
-        <v>0.1320138292623631</v>
+        <v>0.1143362270836191</v>
       </c>
       <c r="J22">
-        <v>0.1320138292623631</v>
+        <v>0.1143362270836191</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>11.9566919690693</v>
+        <v>14.17143466666666</v>
       </c>
       <c r="N22">
-        <v>11.9566919690693</v>
+        <v>42.514304</v>
       </c>
       <c r="O22">
-        <v>0.09594853032535849</v>
+        <v>0.09955029901182223</v>
       </c>
       <c r="P22">
-        <v>0.09594853032535849</v>
+        <v>0.09955029901182223</v>
       </c>
       <c r="Q22">
-        <v>32.71990095658993</v>
+        <v>40.77468481368177</v>
       </c>
       <c r="R22">
-        <v>32.71990095658993</v>
+        <v>366.9721633231359</v>
       </c>
       <c r="S22">
-        <v>0.01266653290034655</v>
+        <v>0.01138220559405789</v>
       </c>
       <c r="T22">
-        <v>0.01266653290034655</v>
+        <v>0.01138220559405789</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>22</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.73653457337806</v>
+        <v>2.877244666666666</v>
       </c>
       <c r="H23">
-        <v>2.73653457337806</v>
+        <v>8.631734</v>
       </c>
       <c r="I23">
-        <v>0.1320138292623631</v>
+        <v>0.1143362270836191</v>
       </c>
       <c r="J23">
-        <v>0.1320138292623631</v>
+        <v>0.1143362270836191</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>15.6185303425051</v>
+        <v>15.94503</v>
       </c>
       <c r="N23">
-        <v>15.6185303425051</v>
+        <v>47.83509</v>
       </c>
       <c r="O23">
-        <v>0.1253335819039277</v>
+        <v>0.1120093019224172</v>
       </c>
       <c r="P23">
-        <v>0.1253335819039277</v>
+        <v>0.1120093019224172</v>
       </c>
       <c r="Q23">
-        <v>42.74064826761948</v>
+        <v>45.87775252734</v>
       </c>
       <c r="R23">
-        <v>42.74064826761948</v>
+        <v>412.89977274606</v>
       </c>
       <c r="S23">
-        <v>0.01654576608230552</v>
+        <v>0.01280672098007915</v>
       </c>
       <c r="T23">
-        <v>0.01654576608230552</v>
+        <v>0.01280672098007914</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>23</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.73653457337806</v>
+        <v>2.877244666666666</v>
       </c>
       <c r="H24">
-        <v>2.73653457337806</v>
+        <v>8.631734</v>
       </c>
       <c r="I24">
-        <v>0.1320138292623631</v>
+        <v>0.1143362270836191</v>
       </c>
       <c r="J24">
-        <v>0.1320138292623631</v>
+        <v>0.1143362270836191</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>26.5908508520181</v>
+        <v>28.53112133333333</v>
       </c>
       <c r="N24">
-        <v>26.5908508520181</v>
+        <v>85.59336400000001</v>
       </c>
       <c r="O24">
-        <v>0.2133828542168707</v>
+        <v>0.2004230147958612</v>
       </c>
       <c r="P24">
-        <v>0.2133828542168707</v>
+        <v>0.2004230147958612</v>
       </c>
       <c r="Q24">
-        <v>72.76678269208698</v>
+        <v>82.09101669035289</v>
       </c>
       <c r="R24">
-        <v>72.76678269208698</v>
+        <v>738.819150213176</v>
       </c>
       <c r="S24">
-        <v>0.02816948768410169</v>
+        <v>0.02291561133248314</v>
       </c>
       <c r="T24">
-        <v>0.02816948768410169</v>
+        <v>0.02291561133248314</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>27</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.73653457337806</v>
+        <v>2.877244666666666</v>
       </c>
       <c r="H25">
-        <v>2.73653457337806</v>
+        <v>8.631734</v>
       </c>
       <c r="I25">
-        <v>0.1320138292623631</v>
+        <v>0.1143362270836191</v>
       </c>
       <c r="J25">
-        <v>0.1320138292623631</v>
+        <v>0.1143362270836191</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>27.9491093602959</v>
+        <v>32.85839333333333</v>
       </c>
       <c r="N25">
-        <v>27.9491093602959</v>
+        <v>98.57517999999999</v>
       </c>
       <c r="O25">
-        <v>0.2242824331311975</v>
+        <v>0.2308208701745229</v>
       </c>
       <c r="P25">
-        <v>0.2242824331311975</v>
+        <v>0.2308208701745229</v>
       </c>
       <c r="Q25">
-        <v>76.48370405957408</v>
+        <v>94.54163697356888</v>
       </c>
       <c r="R25">
-        <v>76.48370405957408</v>
+        <v>850.8747327621198</v>
       </c>
       <c r="S25">
-        <v>0.02960838283392928</v>
+        <v>0.02639118742791281</v>
       </c>
       <c r="T25">
-        <v>0.02960838283392928</v>
+        <v>0.02639118742791281</v>
       </c>
     </row>
   </sheetData>
